--- a/food/fd2.xlsx
+++ b/food/fd2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\1130\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\1207\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="주간메뉴표" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
     <t>주간 메뉴표</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,23 +43,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>월(11/30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화(12/01)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수(12/02)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목(12/03)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금(12/04)</t>
+    <t>월(12/07)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화(12/08)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수(12/09)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목(12/10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금(12/11)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -71,7 +71,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>취나물밥&amp;들기름양념장</t>
+    <t>콩나물밥&amp;양념장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,87 +79,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>콩나물밥&amp;양념장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파송송달걀국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시락국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쑥갓어묵국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치제육볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충무식오징어어묵무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤참치김치볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니돈까스&amp;매콤S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>군만두&amp;초간장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생김&amp;깨간장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연두부&amp;양념장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마별떡맛탕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨너겟&amp;머스타드S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운손만두&amp;양념장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬견과류조림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
+    <t>백미밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무미역국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[비벼먹는참치찌개]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오만둥이청국장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우거지국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지찌개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장불고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이&amp;김가루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육불고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등어구이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추찜&amp;쌈장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬돈육장조림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우튀김&amp;타르타르S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미트볼폭찹조림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀탕수육</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동초겉절이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추김치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -167,35 +159,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모듬견과류조림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추김치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추김치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B메뉴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[한끼든든]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진국큰다리삼계탕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹철판구이덮밥</t>
+    <t>덴뿌라가득우동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -203,19 +171,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>뚝배기돼지찌개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볶음간짜장면&amp;달걀프라이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비빔쫄면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;돈육약고추장</t>
+    <t>뚝배기얼큰쇠고기육개장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짚신매운돼지찜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속시원짬뽕면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후리가케밥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -223,43 +191,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>달걀말이&amp;케찹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어야채핫바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑미밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시락된장국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;머스타드&amp;케찹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>겨울초겉절이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥/배추김치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
+    <t>해쉬포테이토&amp;케찹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추&amp;쌈장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤탕수육</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원달달미숫가루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀찜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우볶음밥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -294,59 +246,51 @@
     <t>B메뉴</t>
   </si>
   <si>
-    <t>베이컨포테이토피자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바싹불고기&amp;상추쌈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기안동찜닭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소고기버섯샤브뚝배기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토스파게티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미즈샐러드파스타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;북성로뚝배기우동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;찍어먹는와사비장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;함박스테이크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이피클</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자고로케&amp;머스타드S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로콜리스프</t>
+    <t>찐찐등뼈해장국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목살스테이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기동태알곤탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기매콤닭도리탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오므라이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵전&amp;케찹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러드스파게티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군만두&amp;초간장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;순살치킨까스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물마늘무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자튀김&amp;케찹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물국</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,11 +298,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>흑임자온두부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>그린샐러드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캔콜라or오렌지쥬스</t>
+    <t>참기름배추김치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -407,23 +355,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MON(11/30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUES(12/01)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WED(12/02)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>THUR(12/03)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRI(12/04)</t>
+    <t>MON(12/07)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUES(12/08)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WED(12/09)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>THUR(12/10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRI(12/11)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -444,7 +392,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Chwinamul Rice</t>
+    <t>Bean Sprouts Rice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -452,85 +400,69 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Beansprouts Rice</t>
-  </si>
-  <si>
-    <t>Muti-grain Rice</t>
-  </si>
-  <si>
-    <t>Egg Soup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dried Radish Green Soup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish Cake Soup</t>
-  </si>
-  <si>
-    <t>Champon</t>
-  </si>
-  <si>
-    <t>Rice Cake Soup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Kimchi Pork</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Sauid Fishcake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Kimchi,Tuna</t>
-  </si>
-  <si>
-    <t>Mini Cutlet&amp;Demi S</t>
+    <t>Rice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Mustard Soup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Kimchi Tuna Stew]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast-fermented Bean Paste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean Passte Soup with outer Leaves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork Stew</t>
+  </si>
+  <si>
+    <t>Stir-fried Pork with Soy S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Egg&amp;Seaweed Powder</t>
   </si>
   <si>
     <t>Stir-fried Pork</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Dumplings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laver&amp;Marinade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silken Beancurd&amp;Marinade</t>
-  </si>
-  <si>
-    <t>Sugar Glazed Sweet Potato</t>
-  </si>
-  <si>
-    <t>Chicken Nugget&amp;Mustard S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Dumplings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glazed Nuts</t>
-  </si>
-  <si>
-    <t>Seasoned Bean sprouts</t>
-  </si>
-  <si>
-    <t>Seasoned Canola</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glazed Nuts</t>
+  </si>
+  <si>
+    <t>Grilled Mackerel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Egg</t>
+  </si>
+  <si>
+    <t>Steamed Cabbage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soy Sauce Braised Pork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shrimp fritters&amp;TarTarS</t>
+  </si>
+  <si>
+    <t>Braised Meatball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet and Sour Pork</t>
+  </si>
+  <si>
+    <t>Seasoned Dongcho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Acorn Jelly Salad</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -538,10 +470,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Laver</t>
+    <t>Seasoend Canoal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Kimchi</t>
+  </si>
+  <si>
+    <t>Kimchi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">B
@@ -554,88 +491,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[Fight Fire with Fire]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pork Neck Over Rice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black Bean S Noodles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Soup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork belly Grilled Rice Bowl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Bowl full of tempura</t>
+  </si>
+  <si>
+    <t>Pork Neck Over Rice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Beef&amp; Noodle Soup</t>
+  </si>
+  <si>
+    <t>Braised Spicy Pork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jjamppong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furigake Rice</t>
   </si>
   <si>
     <t>&amp;Wasabi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork Stew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Fried Egg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Cold Chewy Noodles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Saut'eed Hot Pepper Paste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Brown Potatoes</t>
+  </si>
+  <si>
+    <t>Napa Cabbage&amp;Ssamjang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet and Sour Pork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powder of Mixed Grains Juice</t>
   </si>
   <si>
     <t>Mini Udon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg Rolls</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Squid Fish Cakd Bar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Egg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shirimp Fried Rice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Canola</t>
   </si>
   <si>
     <t>Rice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Canola</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Mustard S&amp;Ketchup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yogurt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Vegetables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Bean Sprouts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice/Kimchi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JUICE</t>
@@ -671,76 +579,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bacon Potato Pizza</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bulgogi&amp;Lettuce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cheese Andong Jjimdak</t>
-  </si>
-  <si>
-    <t>Beef,Mushroom Shabu-Shabu</t>
-  </si>
-  <si>
-    <r>
-      <t>Spaghett</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <rFont val="THE명품고딕B"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">i with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFC00000"/>
-        <rFont val="THE명품고딕B"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Tomato S</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Pork Hangover Soup</t>
+  </si>
+  <si>
+    <t>Pork Neck Steak&amp;Fried Egg</t>
+  </si>
+  <si>
+    <t>Pollack Soup</t>
+  </si>
+  <si>
+    <t>Chicken Stew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omelet Rice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish Cake Pancake</t>
   </si>
   <si>
     <t>Salad Pasta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Buksung Street Style Udon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi Pancake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Wasabi S</t>
-  </si>
-  <si>
-    <t>&amp;Hamburger Steak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pickled Cucumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Potato Crouqette</t>
-  </si>
-  <si>
-    <t>Broccoli Soup</t>
+  </si>
+  <si>
+    <t>Fried Egg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Dumplings&amp;Soy S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;Chicken Cutlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Beansprouts</t>
+  </si>
+  <si>
+    <t>French Fries&amp;Ketchup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanSprouts Soup</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -748,11 +629,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Green Salad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pepsi Cola</t>
+    <t>Steamed Tofu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Salald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi with Sesame Oil</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -772,7 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,20 +769,6 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF346129"/>
-      <name val="THE명품고딕B"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
-      <name val="THE명품고딕B"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -931,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1060,30 +931,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -1109,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,34 +1014,19 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,7 +1097,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDE225D-3500-482E-B13E-786E5914053D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A0E1F3-7C4C-47FB-BC51-1DD91957EEEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,14 +1131,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -1315,7 +1147,7 @@
         <xdr:cNvPr id="3" name="타원 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC9C81E-9DB7-4ADB-87B2-DCD70BDAA88A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5095CC-99BF-4AC8-986B-0E32D58099AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4210050" y="2762250"/>
+          <a:off x="6067425" y="2762250"/>
           <a:ext cx="447675" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1404,7 +1236,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A24F87-D649-42E9-91A7-9093D259087C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC8A1E8-8547-4619-8B1E-61262AF2ACDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,23 +1270,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="타원 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979C94A0-6C55-4EBD-80C6-B39FEDBAA41E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7BAD87-2570-4732-8A8F-0B08E07B449F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4019550" y="2686050"/>
+          <a:off x="6067425" y="2762250"/>
           <a:ext cx="447675" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1835,15 +1667,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1852,10 +1684,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1873,256 +1705,248 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="8" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="8" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="7" t="s">
+      <c r="F16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="G16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="B17" s="25" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -2131,128 +1955,132 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="8" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G22" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="8" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2284,7 +2112,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2296,298 +2124,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="F6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="G6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="16" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="17" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="18" t="s">
+      <c r="D8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="20" t="s">
+      <c r="E9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="F9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="D11" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="18" t="s">
+      <c r="E11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="F11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="7" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="D12" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="18" t="s">
+      <c r="E12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="F12" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="7" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="18" t="s">
+      <c r="E13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="G13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D16" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="8" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>124</v>
+      <c r="B17" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -2596,128 +2414,132 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>154</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>159</v>
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>165</v>
+        <v>85</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="F22" s="11" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="A23" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
